--- a/DataEntry/Data/Documents/ChallanInfo.xlsx
+++ b/DataEntry/Data/Documents/ChallanInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9883D698-8D54-4A81-B9BC-5E5CC3FB7704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF200AA-C2AA-480D-AD5F-EDF43367786F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -47,52 +47,64 @@
     <x:t>PinCode</x:t>
   </x:si>
   <x:si>
+    <x:t>GRN</x:t>
+  </x:si>
+  <x:si>
     <x:t>StampDuty</x:t>
   </x:si>
   <x:si>
     <x:t>Registration</x:t>
   </x:si>
   <x:si>
+    <x:t>Total</x:t>
+  </x:si>
+  <x:si>
     <x:t>DHC</x:t>
   </x:si>
   <x:si>
-    <x:t>Total</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26010499902939</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rajan Krishnaji Urane</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sangram Mohan Monde</x:t>
+    <x:t>DHCAmount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cstatus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dstatus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FinalStatus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26010999904309</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Laxman Jagannath Deokate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sachin Ganpat Mane</x:t>
   </x:si>
   <x:si>
     <x:t>9011092282</x:t>
   </x:si>
   <x:si>
-    <x:t>B-501, Pancham, 11,12,79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sinhgad Road, Pune</x:t>
+    <x:t>D-404, Laukik Ishaan, 06/15/2026 00:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sinhgad Road, Kolhewadi</x:t>
   </x:si>
   <x:si>
     <x:t>Pune</x:t>
   </x:si>
   <x:si>
-    <x:t>411041</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1585</x:t>
+    <x:t>411024</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>308</x:t>
   </x:si>
   <x:si>
     <x:t>1000</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
   </x:si>
   <x:si>
     <x:t>Done</x:t>
@@ -466,10 +478,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:M1"/>
+  <x:dimension ref="A1:Q2"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <x:selection activeCell="E2" sqref="E2 2:2"/>
+    <x:sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <x:selection activeCell="Q7" sqref="Q7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.996339" defaultRowHeight="15"/>
@@ -481,12 +493,14 @@
     <x:col min="5" max="5" width="29.570312" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="23.570312" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="21.425781" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="14.710938" style="0" customWidth="1"/>
-    <x:col min="9" max="12" width="16.140625" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="14.570312" style="3" customWidth="1"/>
+    <x:col min="8" max="9" width="14.710938" style="0" customWidth="1"/>
+    <x:col min="10" max="14" width="16.140625" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="14.570312" style="3" customWidth="1"/>
+    <x:col min="16" max="16" width="8.996339" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="17.140625" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:13" ht="23.25" customHeight="1">
+    <x:row r="1" spans="1:17" ht="23.25" customHeight="1">
       <x:c r="A1" s="4" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -523,90 +537,126 @@
       <x:c r="L1" s="5" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="M1" s="7" t="s">
+      <x:c r="M1" s="5" t="s">
         <x:v>12</x:v>
       </x:c>
+      <x:c r="N1" s="5" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="O1" s="7" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="P1" s="7" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="Q1" s="7" t="s">
+        <x:v>16</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:13">
+    <x:row r="2" spans="1:17">
       <x:c r="A2" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L2" s="0">
-        <x:v>2585</x:v>
-      </x:c>
-      <x:c r="M2" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>1308</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="O2" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P2" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="Q2" s="0" t="s">
+        <x:v>28</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:13">
+    <x:row r="3" spans="1:17">
       <x:c r="A3" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="M3" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="O3" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="Q3" s="0" t="s">
+        <x:v>25</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/DataEntry/Data/Documents/ChallanInfo.xlsx
+++ b/DataEntry/Data/Documents/ChallanInfo.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+<x:workbook xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <x:workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF200AA-C2AA-480D-AD5F-EDF43367786F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView windowWidth="20490" windowHeight="7500" firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </x:ext>
+  </x:extLst>
 </x:workbook>
 </file>
 
@@ -26,10 +33,10 @@
     <x:t>Token</x:t>
   </x:si>
   <x:si>
-    <x:t>OwnerName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TenantName</x:t>
+    <x:t>Owner</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tenant</x:t>
   </x:si>
   <x:si>
     <x:t>Mobile</x:t>
@@ -108,16 +115,41 @@
   </x:si>
   <x:si>
     <x:t>Done</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26011399900503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manoj Bhaskar Zambare</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Patil Ranjit Sahadeo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>T2/1301, Godrej Hillside, 46/9, 46/10, and 47/1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nande- Balewadi road, Mahalunge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>411045</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26011399901143</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="xr9">
+  <x:numFmts count="5">
+    <x:numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <x:numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <x:numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <x:numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <x:numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </x:numFmts>
-  <x:fonts count="4">
+  <x:fonts count="23">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -142,6 +174,150 @@
       <x:scheme val="minor"/>
     </x:font>
     <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color rgb="FF0000FF"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color rgb="FF800080"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FFFF0000"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="18"/>
+      <x:color theme="3"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:i/>
+      <x:sz val="11"/>
+      <x:color rgb="FF7F7F7F"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="15"/>
+      <x:color theme="3"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="13"/>
+      <x:color theme="3"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color theme="3"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF3F3F76"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color rgb="FF3F3F3F"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color rgb="FFFA7D00"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color rgb="FFFFFFFF"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FFFA7D00"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF006100"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF9C0006"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF9C6500"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="0"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -149,15 +325,201 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="2">
+  <x:fills count="33">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFFCC"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFCC99"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFF2F2F2"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFA5A5A5"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFC6EFCE"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFC7CE"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFEB9C"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="6"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="6" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="6" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="6" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="7"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="7" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="7" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="7" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="8"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="8" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="8" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="8" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="9">
     <x:border>
       <x:left/>
       <x:right/>
@@ -165,13 +527,255 @@
       <x:bottom/>
       <x:diagonal/>
     </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="FFB2B2B2"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FFB2B2B2"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FFB2B2B2"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FFB2B2B2"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom style="medium">
+        <x:color theme="4"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom style="medium">
+        <x:color theme="4" tint="0.499984740745262"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="FF7F7F7F"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF7F7F7F"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF7F7F7F"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF7F7F7F"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="FF3F3F3F"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF3F3F3F"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF3F3F3F"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF3F3F3F"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="double">
+        <x:color rgb="FF3F3F3F"/>
+      </x:left>
+      <x:right style="double">
+        <x:color rgb="FF3F3F3F"/>
+      </x:right>
+      <x:top style="double">
+        <x:color rgb="FF3F3F3F"/>
+      </x:top>
+      <x:bottom style="double">
+        <x:color rgb="FF3F3F3F"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom style="double">
+        <x:color rgb="FFFF8001"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top style="thin">
+        <x:color theme="4"/>
+      </x:top>
+      <x:bottom style="double">
+        <x:color theme="4"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="56">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -183,7 +787,7 @@
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -193,25 +797,70 @@
   <x:cellXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <x:xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="1">
+  <x:cellStyles count="49">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <x:cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <x:cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <x:cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <x:cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <x:cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <x:cellStyle name="Link" xfId="6" builtinId="8"/>
+    <x:cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <x:cellStyle name="Note" xfId="8" builtinId="10"/>
+    <x:cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <x:cellStyle name="Title" xfId="10" builtinId="15"/>
+    <x:cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <x:cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <x:cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <x:cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <x:cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <x:cellStyle name="Input" xfId="16" builtinId="20"/>
+    <x:cellStyle name="Output" xfId="17" builtinId="21"/>
+    <x:cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <x:cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <x:cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <x:cellStyle name="Total" xfId="21" builtinId="25"/>
+    <x:cellStyle name="Good" xfId="22" builtinId="26"/>
+    <x:cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <x:cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <x:cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <x:cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <x:cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <x:cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <x:cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <x:cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <x:cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <x:cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <x:cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <x:cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <x:cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <x:cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <x:cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <x:cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <x:cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <x:cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <x:cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <x:cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <x:cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <x:cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <x:cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <x:cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <x:cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <x:cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </x:cellStyles>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <x:extLst>
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </x:ext>
   </x:extLst>
 </x:styleSheet>
@@ -469,35 +1118,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:Q2"/>
+  <x:dimension ref="A1:Q3"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <x:selection activeCell="Q7" sqref="Q7"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="B4" sqref="B4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.996339" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="17.855469" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="21.855469" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="17.857143" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="21.857143" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="21" style="2" customWidth="1"/>
-    <x:col min="4" max="4" width="19.710938" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="29.570312" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="23.570312" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="21.425781" style="0" customWidth="1"/>
-    <x:col min="8" max="9" width="14.710938" style="0" customWidth="1"/>
-    <x:col min="10" max="14" width="16.140625" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="14.570312" style="3" customWidth="1"/>
-    <x:col min="16" max="16" width="8.996339" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="17.140625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="19.714286" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="29.571429" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="23.571429" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="21.428571" style="0" customWidth="1"/>
+    <x:col min="8" max="9" width="14.714286" style="0" customWidth="1"/>
+    <x:col min="10" max="14" width="16.142857" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="14.571429" style="3" customWidth="1"/>
+    <x:col min="16" max="16" width="9" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="17.142857" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:17" ht="23.25" customHeight="1">
@@ -608,28 +1256,28 @@
     </x:row>
     <x:row r="3" spans="1:17">
       <x:c r="A3" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
         <x:v>25</x:v>
@@ -656,6 +1304,59 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="Q3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:17">
+      <x:c r="A4" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="N4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="O4" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="Q4" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
     </x:row>
